--- a/Results Genetaor/Batch 2017-19/Sem 1/1-PM.xlsx
+++ b/Results Genetaor/Batch 2017-19/Sem 1/1-PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE529B99-BF2A-4EAE-9EF0-46997A3CA81C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6F004-F94C-48AD-8D7E-A104D856D7B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="11400" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4385,7 +4416,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dwtPOLlvw5PxpYqbnk1t+vjfkkg1CBVYPYR/X/I+YKOnzUykWU1rLP9WIKxIMdodMLiXoL3lDvTaj4PlklSEBw==" saltValue="fCStyfLTHAfIcd/TOXKhWw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0V7egbXfEAo0TDNZ5cx1SLWIc1BS8Py7VrZAVD/KxkxBtCuvYjUoVd/+E3X1+KCvdVbrpBs7GzD/C9dHMkhAhQ==" saltValue="r9/Vr500Yzn+TTqgf5qPVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="C3:D134" name="Abhishek"/>
   </protectedRanges>
@@ -4393,6 +4424,21 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:C134">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D134">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E134">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>51</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Enter Number Between 0 to 40" error="Enter Number Between 0 to 40" promptTitle="Enter Number Between 0 to 40" prompt="Enter Number Between 0 to 40" sqref="C3:C134" xr:uid="{ED1DC329-A5E3-4349-9F77-FD8289BD3C89}">
       <formula1>0</formula1>
